--- a/data/pca/factorExposure/factorExposure_2016-03-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-03-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01262154650911536</v>
+        <v>0.01566602285328453</v>
       </c>
       <c r="C2">
-        <v>-0.05766026962330095</v>
+        <v>0.04105687059659215</v>
       </c>
       <c r="D2">
-        <v>-0.03710981387308773</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06896713866754671</v>
+      </c>
+      <c r="E2">
+        <v>-0.1041372363526741</v>
+      </c>
+      <c r="F2">
+        <v>-0.07654128212103326</v>
+      </c>
+      <c r="G2">
+        <v>-0.02784268231358145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.04306860572167693</v>
+        <v>0.02682496951754538</v>
       </c>
       <c r="C3">
-        <v>-0.1221838154732609</v>
+        <v>0.06674595321383663</v>
       </c>
       <c r="D3">
-        <v>-0.08277276375331831</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07775809423047692</v>
+      </c>
+      <c r="E3">
+        <v>-0.06439132799673584</v>
+      </c>
+      <c r="F3">
+        <v>0.02905340453898549</v>
+      </c>
+      <c r="G3">
+        <v>-0.03681838441070585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06200157973216604</v>
+        <v>0.06060381752957266</v>
       </c>
       <c r="C4">
-        <v>-0.06705812884459122</v>
+        <v>0.06526193542466452</v>
       </c>
       <c r="D4">
-        <v>-0.03381992326877353</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06503566694272478</v>
+      </c>
+      <c r="E4">
+        <v>-0.09841809484078615</v>
+      </c>
+      <c r="F4">
+        <v>-0.02968931686316494</v>
+      </c>
+      <c r="G4">
+        <v>-0.07624192793797925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.03963354132848378</v>
+        <v>0.03738287268208507</v>
       </c>
       <c r="C6">
-        <v>-0.03738967533388451</v>
+        <v>0.02746265765507398</v>
       </c>
       <c r="D6">
-        <v>-0.03101386293722527</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.0685067678211118</v>
+      </c>
+      <c r="E6">
+        <v>-0.09163449049518829</v>
+      </c>
+      <c r="F6">
+        <v>-0.02132046377868743</v>
+      </c>
+      <c r="G6">
+        <v>-0.05839061641047038</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.0268026168941539</v>
+        <v>0.02129476711793001</v>
       </c>
       <c r="C7">
-        <v>-0.04267581424620454</v>
+        <v>0.03713786358279544</v>
       </c>
       <c r="D7">
-        <v>0.003334458298547619</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04545706175597312</v>
+      </c>
+      <c r="E7">
+        <v>-0.0773298211932454</v>
+      </c>
+      <c r="F7">
+        <v>-0.05724220001363754</v>
+      </c>
+      <c r="G7">
+        <v>-0.1003618033278416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.008208747237127377</v>
+        <v>0.007481388419586293</v>
       </c>
       <c r="C8">
-        <v>-0.04226248534606736</v>
+        <v>0.03495134409603495</v>
       </c>
       <c r="D8">
-        <v>-0.02632105615839926</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.04183173776091272</v>
+      </c>
+      <c r="E8">
+        <v>-0.0611408484026042</v>
+      </c>
+      <c r="F8">
+        <v>-0.01415017906418912</v>
+      </c>
+      <c r="G8">
+        <v>-0.03694019450904605</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.03895447343544665</v>
+        <v>0.04148060790815258</v>
       </c>
       <c r="C9">
-        <v>-0.04743828709790859</v>
+        <v>0.05103446879270333</v>
       </c>
       <c r="D9">
-        <v>-0.01717887299046234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04604034190825997</v>
+      </c>
+      <c r="E9">
+        <v>-0.07603322457587305</v>
+      </c>
+      <c r="F9">
+        <v>-0.04692043272712301</v>
+      </c>
+      <c r="G9">
+        <v>-0.07847596483748871</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.07171408629786175</v>
+        <v>0.0994227941249607</v>
       </c>
       <c r="C10">
-        <v>0.1921107664858137</v>
+        <v>-0.2016670303515959</v>
       </c>
       <c r="D10">
-        <v>0.003635271251923848</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.009833376447397974</v>
+      </c>
+      <c r="E10">
+        <v>-0.03545347894422682</v>
+      </c>
+      <c r="F10">
+        <v>-0.01753868498912381</v>
+      </c>
+      <c r="G10">
+        <v>-0.04174436204925525</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04334836180363869</v>
+        <v>0.03782328872753298</v>
       </c>
       <c r="C11">
-        <v>-0.0518994345266294</v>
+        <v>0.0477478622366924</v>
       </c>
       <c r="D11">
-        <v>-0.01566667677099295</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03370569290789576</v>
+      </c>
+      <c r="E11">
+        <v>-0.03274618136467272</v>
+      </c>
+      <c r="F11">
+        <v>-0.03166943705630289</v>
+      </c>
+      <c r="G11">
+        <v>-0.0696968808696882</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.04624431126653394</v>
+        <v>0.04005179365573291</v>
       </c>
       <c r="C12">
-        <v>-0.04679082837797288</v>
+        <v>0.04608000819576358</v>
       </c>
       <c r="D12">
-        <v>-0.001962715643679681</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02883127568395858</v>
+      </c>
+      <c r="E12">
+        <v>-0.04028922471646559</v>
+      </c>
+      <c r="F12">
+        <v>-0.03338148808953846</v>
+      </c>
+      <c r="G12">
+        <v>-0.06586788705885321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01626093893387785</v>
+        <v>0.014813911931995</v>
       </c>
       <c r="C13">
-        <v>-0.05512509404633169</v>
+        <v>0.04267022528420149</v>
       </c>
       <c r="D13">
-        <v>-0.009499138015631466</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.0554441676032675</v>
+      </c>
+      <c r="E13">
+        <v>-0.111754426063387</v>
+      </c>
+      <c r="F13">
+        <v>-0.04812736451701421</v>
+      </c>
+      <c r="G13">
+        <v>-0.09105909730470396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.01063948665059298</v>
+        <v>0.007538000274373294</v>
       </c>
       <c r="C14">
-        <v>-0.03707607736835362</v>
+        <v>0.03039430433651873</v>
       </c>
       <c r="D14">
-        <v>0.001056089713627671</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03089345472857797</v>
+      </c>
+      <c r="E14">
+        <v>-0.0638104959626247</v>
+      </c>
+      <c r="F14">
+        <v>-0.06579379053381788</v>
+      </c>
+      <c r="G14">
+        <v>-0.07939855453779926</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0001147981931837165</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.006291339294727603</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.009306969071460756</v>
+      </c>
+      <c r="E15">
+        <v>-0.006632651318758148</v>
+      </c>
+      <c r="F15">
+        <v>-0.005375426088001289</v>
+      </c>
+      <c r="G15">
+        <v>-0.007455803885318806</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.04115740208436673</v>
+        <v>0.03610432406523731</v>
       </c>
       <c r="C16">
-        <v>-0.04863600987984049</v>
+        <v>0.04463236976394383</v>
       </c>
       <c r="D16">
-        <v>-0.00466938316214208</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02863046576309211</v>
+      </c>
+      <c r="E16">
+        <v>-0.04771461230954244</v>
+      </c>
+      <c r="F16">
+        <v>-0.04396194888653319</v>
+      </c>
+      <c r="G16">
+        <v>-0.05627842651854677</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.02664546424857239</v>
+        <v>0.01882394396163818</v>
       </c>
       <c r="C19">
-        <v>-0.06183328524527085</v>
+        <v>0.0452362617490159</v>
       </c>
       <c r="D19">
-        <v>-0.08725561650148736</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.09682996780473815</v>
+      </c>
+      <c r="E19">
+        <v>-0.1118378121298133</v>
+      </c>
+      <c r="F19">
+        <v>-0.05373380328304237</v>
+      </c>
+      <c r="G19">
+        <v>-0.03576252508753665</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.02028297924458203</v>
+        <v>0.01621251346068964</v>
       </c>
       <c r="C20">
-        <v>-0.05033056162878533</v>
+        <v>0.04045445671600147</v>
       </c>
       <c r="D20">
-        <v>-0.008820196756012109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.040730762763752</v>
+      </c>
+      <c r="E20">
+        <v>-0.08612498337068186</v>
+      </c>
+      <c r="F20">
+        <v>-0.04728758868504419</v>
+      </c>
+      <c r="G20">
+        <v>-0.06370472964350127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01338258107255763</v>
+        <v>0.01306258026691421</v>
       </c>
       <c r="C21">
-        <v>-0.05706166818917566</v>
+        <v>0.04423547425339923</v>
       </c>
       <c r="D21">
-        <v>-0.03315401230003012</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.0665077927728227</v>
+      </c>
+      <c r="E21">
+        <v>-0.1350341434080844</v>
+      </c>
+      <c r="F21">
+        <v>-0.07557250335389011</v>
+      </c>
+      <c r="G21">
+        <v>-0.09247242787591678</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.002761232103907315</v>
+        <v>0.004439388777890459</v>
       </c>
       <c r="C22">
-        <v>-0.0009816395150244565</v>
+        <v>0.02941187878506218</v>
       </c>
       <c r="D22">
-        <v>-0.009058282359445162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.05782285972099938</v>
+      </c>
+      <c r="E22">
+        <v>-0.06213265298835299</v>
+      </c>
+      <c r="F22">
+        <v>0.02694720220081411</v>
+      </c>
+      <c r="G22">
+        <v>-0.05440419632449419</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.002750463882200997</v>
+        <v>0.004525630413757638</v>
       </c>
       <c r="C23">
-        <v>-0.0009676642002309429</v>
+        <v>0.02943380122732765</v>
       </c>
       <c r="D23">
-        <v>-0.008983164927909248</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.05703263363705273</v>
+      </c>
+      <c r="E23">
+        <v>-0.06222836559721674</v>
+      </c>
+      <c r="F23">
+        <v>0.02707985456607746</v>
+      </c>
+      <c r="G23">
+        <v>-0.05450594410115042</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.03811180979491405</v>
+        <v>0.03713687479448968</v>
       </c>
       <c r="C24">
-        <v>-0.04989650184070602</v>
+        <v>0.05262165324124226</v>
       </c>
       <c r="D24">
-        <v>-0.009739425576254639</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02941107779886722</v>
+      </c>
+      <c r="E24">
+        <v>-0.05101480899765164</v>
+      </c>
+      <c r="F24">
+        <v>-0.04470607856031202</v>
+      </c>
+      <c r="G24">
+        <v>-0.06689730220184231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04938622550104921</v>
+        <v>0.04447982504709422</v>
       </c>
       <c r="C25">
-        <v>-0.05925501938013563</v>
+        <v>0.05562175754314462</v>
       </c>
       <c r="D25">
-        <v>0.00112562142520596</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02642974824791436</v>
+      </c>
+      <c r="E25">
+        <v>-0.04132541883707449</v>
+      </c>
+      <c r="F25">
+        <v>-0.03520157388355596</v>
+      </c>
+      <c r="G25">
+        <v>-0.08040653316771867</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.01882878954403967</v>
+        <v>0.01744835432687819</v>
       </c>
       <c r="C26">
-        <v>-0.01824298798686716</v>
+        <v>0.01697376360247719</v>
       </c>
       <c r="D26">
-        <v>-0.007772878447941996</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02974909157971914</v>
+      </c>
+      <c r="E26">
+        <v>-0.05783614224391557</v>
+      </c>
+      <c r="F26">
+        <v>-0.04981522749639316</v>
+      </c>
+      <c r="G26">
+        <v>-0.04696187530443801</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.08842034084729601</v>
+        <v>0.1361375677910525</v>
       </c>
       <c r="C28">
-        <v>0.2550607246626487</v>
+        <v>-0.2597239195109522</v>
       </c>
       <c r="D28">
-        <v>0.006561140925086958</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02642458748965804</v>
+      </c>
+      <c r="E28">
+        <v>-0.05579228686737624</v>
+      </c>
+      <c r="F28">
+        <v>-0.02824079557645334</v>
+      </c>
+      <c r="G28">
+        <v>-0.05706137112903696</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.009039623798846872</v>
+        <v>0.008018586630828724</v>
       </c>
       <c r="C29">
-        <v>-0.03314737246891963</v>
+        <v>0.02868249198027168</v>
       </c>
       <c r="D29">
-        <v>0.007761772848441128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02323299584199236</v>
+      </c>
+      <c r="E29">
+        <v>-0.06315883323424276</v>
+      </c>
+      <c r="F29">
+        <v>-0.05686582772715168</v>
+      </c>
+      <c r="G29">
+        <v>-0.08452778088562359</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04661986602397147</v>
+        <v>0.04499511998689196</v>
       </c>
       <c r="C30">
-        <v>-0.04937901652863614</v>
+        <v>0.05670945087494298</v>
       </c>
       <c r="D30">
-        <v>-0.0805371891207346</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1089873348977908</v>
+      </c>
+      <c r="E30">
+        <v>-0.08539835360554374</v>
+      </c>
+      <c r="F30">
+        <v>-0.05268924102708266</v>
+      </c>
+      <c r="G30">
+        <v>-0.05838726203386875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.06208966318159561</v>
+        <v>0.06005020657758331</v>
       </c>
       <c r="C31">
-        <v>-0.04570104123853531</v>
+        <v>0.06082896402372374</v>
       </c>
       <c r="D31">
-        <v>0.04092191491621342</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.01162011531330353</v>
+      </c>
+      <c r="E31">
+        <v>-0.07651037630319665</v>
+      </c>
+      <c r="F31">
+        <v>-0.01303994309579792</v>
+      </c>
+      <c r="G31">
+        <v>-0.0737121716151123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.003735070949835277</v>
+        <v>0.008819465253343647</v>
       </c>
       <c r="C32">
-        <v>-0.04247647395680824</v>
+        <v>0.03544032514548143</v>
       </c>
       <c r="D32">
-        <v>-0.05916155490121298</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.06025233756502385</v>
+      </c>
+      <c r="E32">
+        <v>-0.06434905115238519</v>
+      </c>
+      <c r="F32">
+        <v>-0.05553530227067529</v>
+      </c>
+      <c r="G32">
+        <v>-0.06072934491374542</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.03501847999722707</v>
+        <v>0.02874718692748428</v>
       </c>
       <c r="C33">
-        <v>-0.05961512089732127</v>
+        <v>0.05271207804212853</v>
       </c>
       <c r="D33">
-        <v>-0.04000464511960582</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.07592381428066064</v>
+      </c>
+      <c r="E33">
+        <v>-0.09226324605265644</v>
+      </c>
+      <c r="F33">
+        <v>-0.05378093370019927</v>
+      </c>
+      <c r="G33">
+        <v>-0.100278395262736</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04596366364960539</v>
+        <v>0.04165806081960646</v>
       </c>
       <c r="C34">
-        <v>-0.06518882982544294</v>
+        <v>0.06304138475972761</v>
       </c>
       <c r="D34">
-        <v>-0.02440316648619942</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03970491156389875</v>
+      </c>
+      <c r="E34">
+        <v>-0.02323458128531878</v>
+      </c>
+      <c r="F34">
+        <v>-0.04648682222952794</v>
+      </c>
+      <c r="G34">
+        <v>-0.07424472836582288</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01821783804641127</v>
+        <v>0.01581613743484118</v>
       </c>
       <c r="C36">
-        <v>-0.01705373206518713</v>
+        <v>0.0137324553724699</v>
       </c>
       <c r="D36">
-        <v>0.000172375601461362</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02894924515636114</v>
+      </c>
+      <c r="E36">
+        <v>-0.0668666772806716</v>
+      </c>
+      <c r="F36">
+        <v>-0.04170178686696439</v>
+      </c>
+      <c r="G36">
+        <v>-0.0644318602854785</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03032556850681754</v>
+        <v>0.02364220738807889</v>
       </c>
       <c r="C38">
-        <v>-0.03109379988725634</v>
+        <v>0.02416419580388154</v>
       </c>
       <c r="D38">
-        <v>0.01505487745525622</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02243737867396809</v>
+      </c>
+      <c r="E38">
+        <v>-0.05524864508366469</v>
+      </c>
+      <c r="F38">
+        <v>-0.03265942839695288</v>
+      </c>
+      <c r="G38">
+        <v>-0.04378628750551125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.04881888932507915</v>
+        <v>0.04281646707879716</v>
       </c>
       <c r="C39">
-        <v>-0.06014200802297544</v>
+        <v>0.06181205979595254</v>
       </c>
       <c r="D39">
-        <v>-0.02241166897782053</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05522632966738055</v>
+      </c>
+      <c r="E39">
+        <v>-0.05735532993711924</v>
+      </c>
+      <c r="F39">
+        <v>-0.06540974607413849</v>
+      </c>
+      <c r="G39">
+        <v>-0.06408174728299808</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01212803137426312</v>
+        <v>0.01528800747656742</v>
       </c>
       <c r="C40">
-        <v>-0.05587507446930388</v>
+        <v>0.03888395798758491</v>
       </c>
       <c r="D40">
-        <v>-0.01037483950955708</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.0358251042999945</v>
+      </c>
+      <c r="E40">
+        <v>-0.09821283408428937</v>
+      </c>
+      <c r="F40">
+        <v>-0.02868117443428567</v>
+      </c>
+      <c r="G40">
+        <v>-0.09618350927907254</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02482034702496736</v>
+        <v>0.02047586112515067</v>
       </c>
       <c r="C41">
-        <v>-0.01381699958601981</v>
+        <v>0.01002437197416944</v>
       </c>
       <c r="D41">
-        <v>-0.0005700348050879219</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.02043235766937204</v>
+      </c>
+      <c r="E41">
+        <v>-0.06784499708460832</v>
+      </c>
+      <c r="F41">
+        <v>-0.03564699776520722</v>
+      </c>
+      <c r="G41">
+        <v>-0.05009780928777836</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04572166300118302</v>
+        <v>0.03245342569948856</v>
       </c>
       <c r="C43">
-        <v>-0.03467642640081785</v>
+        <v>0.02498701579360626</v>
       </c>
       <c r="D43">
-        <v>-0.02199180141532616</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04960773624058717</v>
+      </c>
+      <c r="E43">
+        <v>-0.0838582680051413</v>
+      </c>
+      <c r="F43">
+        <v>-0.02640207881034876</v>
+      </c>
+      <c r="G43">
+        <v>-0.07210304205327007</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01783340759895713</v>
+        <v>0.01871108381319284</v>
       </c>
       <c r="C44">
-        <v>-0.07198407422273029</v>
+        <v>0.0485458632961877</v>
       </c>
       <c r="D44">
-        <v>-0.001771315767270254</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03744260729052282</v>
+      </c>
+      <c r="E44">
+        <v>-0.09219554020606348</v>
+      </c>
+      <c r="F44">
+        <v>-0.0561048460275202</v>
+      </c>
+      <c r="G44">
+        <v>-0.05355868532533251</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01344077443680457</v>
+        <v>0.01298725478530318</v>
       </c>
       <c r="C46">
-        <v>-0.02716678985551723</v>
+        <v>0.02871518613028347</v>
       </c>
       <c r="D46">
-        <v>0.008891099528430636</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.02114803622744572</v>
+      </c>
+      <c r="E46">
+        <v>-0.0756973185195511</v>
+      </c>
+      <c r="F46">
+        <v>-0.06389469720082373</v>
+      </c>
+      <c r="G46">
+        <v>-0.0775882812160074</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.09184217479176579</v>
+        <v>0.09385233826167849</v>
       </c>
       <c r="C47">
-        <v>-0.06575054196515255</v>
+        <v>0.07781180609248846</v>
       </c>
       <c r="D47">
-        <v>0.04468633932985731</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01980600677964683</v>
+      </c>
+      <c r="E47">
+        <v>-0.06821344399761652</v>
+      </c>
+      <c r="F47">
+        <v>-0.01588920208677915</v>
+      </c>
+      <c r="G47">
+        <v>-0.07510527822200792</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.02051227421197305</v>
+        <v>0.01897661631524572</v>
       </c>
       <c r="C48">
-        <v>-0.01399870895568922</v>
+        <v>0.01619070602617756</v>
       </c>
       <c r="D48">
-        <v>0.01542120779941273</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.0165766123121553</v>
+      </c>
+      <c r="E48">
+        <v>-0.08095575203254735</v>
+      </c>
+      <c r="F48">
+        <v>-0.05572233035550312</v>
+      </c>
+      <c r="G48">
+        <v>-0.06985632474416409</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.08599744129244967</v>
+        <v>0.07314173893863792</v>
       </c>
       <c r="C50">
-        <v>-0.08033477678005638</v>
+        <v>0.07354400272546351</v>
       </c>
       <c r="D50">
-        <v>0.04274190209378596</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.002351891250931488</v>
+      </c>
+      <c r="E50">
+        <v>-0.08258086178737309</v>
+      </c>
+      <c r="F50">
+        <v>0.01470633230403594</v>
+      </c>
+      <c r="G50">
+        <v>-0.08253834577122308</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01646975515365482</v>
+        <v>0.01208771999045958</v>
       </c>
       <c r="C51">
-        <v>-0.04828018320370689</v>
+        <v>0.03059659532513255</v>
       </c>
       <c r="D51">
-        <v>-0.04839805197334236</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.06329654351933295</v>
+      </c>
+      <c r="E51">
+        <v>-0.06374629520098854</v>
+      </c>
+      <c r="F51">
+        <v>-0.05431581300631198</v>
+      </c>
+      <c r="G51">
+        <v>-0.05345765630260087</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.08516726863853932</v>
+        <v>0.09842090392405439</v>
       </c>
       <c r="C53">
-        <v>-0.07733192296075146</v>
+        <v>0.08404911179646073</v>
       </c>
       <c r="D53">
-        <v>0.0674210728302638</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.05992467034203763</v>
+      </c>
+      <c r="E53">
+        <v>-0.0712945687708838</v>
+      </c>
+      <c r="F53">
+        <v>-0.02182539203933524</v>
+      </c>
+      <c r="G53">
+        <v>-0.0753275393243273</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.03718869273037813</v>
+        <v>0.03096612073527459</v>
       </c>
       <c r="C54">
-        <v>-0.03433401428806473</v>
+        <v>0.03100218681648199</v>
       </c>
       <c r="D54">
-        <v>-0.002077556196626427</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03102634021932133</v>
+      </c>
+      <c r="E54">
+        <v>-0.06793912919348974</v>
+      </c>
+      <c r="F54">
+        <v>-0.05862712653631193</v>
+      </c>
+      <c r="G54">
+        <v>-0.08259697565121008</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.08091769839899507</v>
+        <v>0.0911576693493307</v>
       </c>
       <c r="C55">
-        <v>-0.05074628709268814</v>
+        <v>0.06535002947491246</v>
       </c>
       <c r="D55">
-        <v>0.07179572377639727</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.05968555328958384</v>
+      </c>
+      <c r="E55">
+        <v>-0.0476036385236242</v>
+      </c>
+      <c r="F55">
+        <v>-0.0001164219841953407</v>
+      </c>
+      <c r="G55">
+        <v>-0.0554736057581374</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1543067160024598</v>
+        <v>0.1560047446871687</v>
       </c>
       <c r="C56">
-        <v>-0.07815089455811272</v>
+        <v>0.09844608521119222</v>
       </c>
       <c r="D56">
-        <v>0.06193750124684243</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05244597793407579</v>
+      </c>
+      <c r="E56">
+        <v>-0.03833187944600538</v>
+      </c>
+      <c r="F56">
+        <v>0.01074958514203219</v>
+      </c>
+      <c r="G56">
+        <v>-0.02354442933624947</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04834413895641099</v>
+        <v>0.0324706836755328</v>
       </c>
       <c r="C58">
-        <v>-0.0211610423806467</v>
+        <v>0.02395246067622155</v>
       </c>
       <c r="D58">
-        <v>-0.46020356541374</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3944284462560014</v>
+      </c>
+      <c r="E58">
+        <v>-0.5442665030178649</v>
+      </c>
+      <c r="F58">
+        <v>0.3936917611646081</v>
+      </c>
+      <c r="G58">
+        <v>0.5361812149104269</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1219021609674457</v>
+        <v>0.1390241953845159</v>
       </c>
       <c r="C59">
-        <v>0.2067350844941251</v>
+        <v>-0.1928282680748844</v>
       </c>
       <c r="D59">
-        <v>-0.02624615084008699</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03035200658803495</v>
+      </c>
+      <c r="E59">
+        <v>-0.03011254530890825</v>
+      </c>
+      <c r="F59">
+        <v>-0.03248458809988257</v>
+      </c>
+      <c r="G59">
+        <v>0.004701085711396914</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2991097066334915</v>
+        <v>0.2717748422781864</v>
       </c>
       <c r="C60">
-        <v>-0.1070236534149072</v>
+        <v>0.1025294140807382</v>
       </c>
       <c r="D60">
-        <v>-0.2104533057715333</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2382450177208523</v>
+      </c>
+      <c r="E60">
+        <v>0.2540249854935044</v>
+      </c>
+      <c r="F60">
+        <v>0.08344408234582265</v>
+      </c>
+      <c r="G60">
+        <v>-0.05170270767820119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.046969345051417</v>
+        <v>0.04408183060809923</v>
       </c>
       <c r="C61">
-        <v>-0.05918336965096031</v>
+        <v>0.05735797304111058</v>
       </c>
       <c r="D61">
-        <v>-0.01930248582426972</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04629557403590203</v>
+      </c>
+      <c r="E61">
+        <v>-0.05709523103553053</v>
+      </c>
+      <c r="F61">
+        <v>-0.0479367422693943</v>
+      </c>
+      <c r="G61">
+        <v>-0.07653036676484086</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.0182206313818383</v>
+        <v>0.01786937365132351</v>
       </c>
       <c r="C63">
-        <v>-0.03413829452011818</v>
+        <v>0.03081005979937783</v>
       </c>
       <c r="D63">
-        <v>0.01691514486759262</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01986658089135554</v>
+      </c>
+      <c r="E63">
+        <v>-0.06938624445157292</v>
+      </c>
+      <c r="F63">
+        <v>-0.03083732688539258</v>
+      </c>
+      <c r="G63">
+        <v>-0.07386002505263532</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.05362042644631016</v>
+        <v>0.05820895051567525</v>
       </c>
       <c r="C64">
-        <v>-0.04911864970386989</v>
+        <v>0.05837674539386723</v>
       </c>
       <c r="D64">
-        <v>-0.01043510555716391</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.01354709804154403</v>
+      </c>
+      <c r="E64">
+        <v>-0.04720964306016768</v>
+      </c>
+      <c r="F64">
+        <v>-0.04664011247916726</v>
+      </c>
+      <c r="G64">
+        <v>-0.05526849517677459</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.07914158748999847</v>
+        <v>0.06503924434971078</v>
       </c>
       <c r="C65">
-        <v>-0.02534784247511315</v>
+        <v>0.0261909358889935</v>
       </c>
       <c r="D65">
-        <v>-0.05799152975899273</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08974618586760258</v>
+      </c>
+      <c r="E65">
+        <v>-0.05067832211463158</v>
+      </c>
+      <c r="F65">
+        <v>0.001375426914292398</v>
+      </c>
+      <c r="G65">
+        <v>-0.01830763755575807</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.06209327186478692</v>
+        <v>0.05436073045135041</v>
       </c>
       <c r="C66">
-        <v>-0.07953341351249721</v>
+        <v>0.07714997328539633</v>
       </c>
       <c r="D66">
-        <v>-0.04188919479757744</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07908302347260232</v>
+      </c>
+      <c r="E66">
+        <v>-0.07184997590379576</v>
+      </c>
+      <c r="F66">
+        <v>-0.05427587862621604</v>
+      </c>
+      <c r="G66">
+        <v>-0.07493423416028294</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.0508032258767406</v>
+        <v>0.04389344724025643</v>
       </c>
       <c r="C67">
-        <v>-0.03110872622579582</v>
+        <v>0.0284687162026015</v>
       </c>
       <c r="D67">
-        <v>0.02411401900311054</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.004167819415934558</v>
+      </c>
+      <c r="E67">
+        <v>-0.0320445906335275</v>
+      </c>
+      <c r="F67">
+        <v>-0.02101967620458239</v>
+      </c>
+      <c r="G67">
+        <v>-0.03506394206532258</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1234706985750696</v>
+        <v>0.1474028800860497</v>
       </c>
       <c r="C68">
-        <v>0.2814685806237382</v>
+        <v>-0.2443848808090617</v>
       </c>
       <c r="D68">
-        <v>0.00923592349516867</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01216413831399353</v>
+      </c>
+      <c r="E68">
+        <v>-0.0429842940614361</v>
+      </c>
+      <c r="F68">
+        <v>-0.006281829088303341</v>
+      </c>
+      <c r="G68">
+        <v>-0.02687298736989885</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.09370058794641391</v>
+        <v>0.08947778548671566</v>
       </c>
       <c r="C69">
-        <v>-0.06916199701209617</v>
+        <v>0.08927918418876163</v>
       </c>
       <c r="D69">
-        <v>0.04520422862761279</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.009057264861758224</v>
+      </c>
+      <c r="E69">
+        <v>-0.06164283519716118</v>
+      </c>
+      <c r="F69">
+        <v>-0.04747844567738065</v>
+      </c>
+      <c r="G69">
+        <v>-0.07364820442804217</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1142496828244747</v>
+        <v>0.1421885932288009</v>
       </c>
       <c r="C71">
-        <v>0.2605921214135306</v>
+        <v>-0.2446565239983918</v>
       </c>
       <c r="D71">
-        <v>-0.01061772542834491</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.008277054974728276</v>
+      </c>
+      <c r="E71">
+        <v>-0.06459057629675466</v>
+      </c>
+      <c r="F71">
+        <v>-0.002146295773844085</v>
+      </c>
+      <c r="G71">
+        <v>-0.05625738923386926</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0990642760036259</v>
+        <v>0.1051541688626675</v>
       </c>
       <c r="C72">
-        <v>-0.04089968919672669</v>
+        <v>0.04664821005054227</v>
       </c>
       <c r="D72">
-        <v>-0.003656327863390878</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.03699846507812622</v>
+      </c>
+      <c r="E72">
+        <v>-0.0198730316461668</v>
+      </c>
+      <c r="F72">
+        <v>-0.01984206058282616</v>
+      </c>
+      <c r="G72">
+        <v>-0.1014151152518648</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.3833887068106349</v>
+        <v>0.326758056264925</v>
       </c>
       <c r="C73">
-        <v>-0.04065061980212697</v>
+        <v>0.06370315861895007</v>
       </c>
       <c r="D73">
-        <v>-0.5119107811809515</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4879805083117232</v>
+      </c>
+      <c r="E73">
+        <v>0.4869166642095178</v>
+      </c>
+      <c r="F73">
+        <v>0.2359942452034509</v>
+      </c>
+      <c r="G73">
+        <v>-0.01558748263995927</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1073637402556216</v>
+        <v>0.1116576367917304</v>
       </c>
       <c r="C74">
-        <v>-0.09150883245239266</v>
+        <v>0.09086250652530262</v>
       </c>
       <c r="D74">
-        <v>0.04965479492092026</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04510844759521114</v>
+      </c>
+      <c r="E74">
+        <v>-0.05793519319505534</v>
+      </c>
+      <c r="F74">
+        <v>0.01284239629006297</v>
+      </c>
+      <c r="G74">
+        <v>-0.04903637341636489</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2569675280452829</v>
+        <v>0.259364588182793</v>
       </c>
       <c r="C75">
-        <v>-0.08434525289590462</v>
+        <v>0.1197574795496169</v>
       </c>
       <c r="D75">
-        <v>0.1508323968551346</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1532983881211001</v>
+      </c>
+      <c r="E75">
+        <v>-0.0238443862810304</v>
+      </c>
+      <c r="F75">
+        <v>0.04472920257367103</v>
+      </c>
+      <c r="G75">
+        <v>0.04496360228416774</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1168844731270989</v>
+        <v>0.1299405963798043</v>
       </c>
       <c r="C76">
-        <v>-0.07712754426289102</v>
+        <v>0.08861938034025112</v>
       </c>
       <c r="D76">
-        <v>0.07894343631919017</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.07625944958089717</v>
+      </c>
+      <c r="E76">
+        <v>-0.07909989740786118</v>
+      </c>
+      <c r="F76">
+        <v>-0.01347955520477234</v>
+      </c>
+      <c r="G76">
+        <v>-0.03582411099707636</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.08564540017376965</v>
+        <v>0.06927055040661731</v>
       </c>
       <c r="C77">
-        <v>-0.04116310239810698</v>
+        <v>0.05692806473223336</v>
       </c>
       <c r="D77">
-        <v>-0.05896201796549373</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.071397726411854</v>
+      </c>
+      <c r="E77">
+        <v>-0.09879554298880126</v>
+      </c>
+      <c r="F77">
+        <v>-0.1824845829595687</v>
+      </c>
+      <c r="G77">
+        <v>0.1207381059744678</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04989848602902831</v>
+        <v>0.04844202937151883</v>
       </c>
       <c r="C78">
-        <v>-0.03631513777848524</v>
+        <v>0.05160437574318165</v>
       </c>
       <c r="D78">
-        <v>-0.03629981018741048</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07001836657141365</v>
+      </c>
+      <c r="E78">
+        <v>-0.06443466760303776</v>
+      </c>
+      <c r="F78">
+        <v>-0.05118518296363732</v>
+      </c>
+      <c r="G78">
+        <v>-0.06554764108090658</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.0004176301117888079</v>
+        <v>0.03458089314034831</v>
       </c>
       <c r="C79">
-        <v>-0.0009738373033038068</v>
+        <v>0.0494400627363274</v>
       </c>
       <c r="D79">
-        <v>-0.003975796658823431</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.08293339320930923</v>
+      </c>
+      <c r="E79">
+        <v>-0.0708118858713381</v>
+      </c>
+      <c r="F79">
+        <v>0.0280686217277113</v>
+      </c>
+      <c r="G79">
+        <v>-0.03433484472447045</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.04045798095412285</v>
+        <v>0.03087336363568629</v>
       </c>
       <c r="C80">
-        <v>-0.05304303388257227</v>
+        <v>0.05164569397514516</v>
       </c>
       <c r="D80">
-        <v>-0.0378309154143199</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04638609975301661</v>
+      </c>
+      <c r="E80">
+        <v>-0.01361363916028623</v>
+      </c>
+      <c r="F80">
+        <v>-0.05206531816334262</v>
+      </c>
+      <c r="G80">
+        <v>0.002738012592092533</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1444632695608802</v>
+        <v>0.1425572421640987</v>
       </c>
       <c r="C81">
-        <v>-0.07152200617563179</v>
+        <v>0.09046576792905084</v>
       </c>
       <c r="D81">
-        <v>0.1178572040231623</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1201942949824229</v>
+      </c>
+      <c r="E81">
+        <v>-0.06875092700845009</v>
+      </c>
+      <c r="F81">
+        <v>0.01951655763909301</v>
+      </c>
+      <c r="G81">
+        <v>0.01477509165200136</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.2051403046892364</v>
+        <v>0.2329504839429585</v>
       </c>
       <c r="C82">
-        <v>-0.09097706494143241</v>
+        <v>0.154503921079076</v>
       </c>
       <c r="D82">
-        <v>0.2047884280460311</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2491032343436709</v>
+      </c>
+      <c r="E82">
+        <v>0.03652076967412969</v>
+      </c>
+      <c r="F82">
+        <v>-0.04184831218072717</v>
+      </c>
+      <c r="G82">
+        <v>-0.08272777068441593</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.04417030739081747</v>
+        <v>0.03004839063865442</v>
       </c>
       <c r="C83">
-        <v>-0.03224788933012562</v>
+        <v>0.04546987610748426</v>
       </c>
       <c r="D83">
-        <v>-0.04190536151872139</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03382524363604227</v>
+      </c>
+      <c r="E83">
+        <v>-0.02452023237584727</v>
+      </c>
+      <c r="F83">
+        <v>-0.02493121805593226</v>
+      </c>
+      <c r="G83">
+        <v>0.003113323025554961</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0001834861240859828</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0006116121779645593</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.0006192997135892325</v>
+      </c>
+      <c r="E84">
+        <v>-0.0033423833508057</v>
+      </c>
+      <c r="F84">
+        <v>0.001451993920247612</v>
+      </c>
+      <c r="G84">
+        <v>-0.0001253100884705831</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2203012669649907</v>
+        <v>0.2037470990125156</v>
       </c>
       <c r="C85">
-        <v>-0.09151173870452617</v>
+        <v>0.1092936526957436</v>
       </c>
       <c r="D85">
-        <v>0.1618676479968746</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1301650513183041</v>
+      </c>
+      <c r="E85">
+        <v>0.008725078038218427</v>
+      </c>
+      <c r="F85">
+        <v>0.1021753858773993</v>
+      </c>
+      <c r="G85">
+        <v>-0.007123780885214064</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01071323734520998</v>
+        <v>0.0140742396613873</v>
       </c>
       <c r="C86">
-        <v>-0.02873446439375142</v>
+        <v>0.01777606894414997</v>
       </c>
       <c r="D86">
-        <v>-0.04360026064810808</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.06947092976476754</v>
+      </c>
+      <c r="E86">
+        <v>-0.0822647517869531</v>
+      </c>
+      <c r="F86">
+        <v>-0.07234568972830108</v>
+      </c>
+      <c r="G86">
+        <v>-0.0716332768988764</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.0306527453610349</v>
+        <v>0.02999584293385321</v>
       </c>
       <c r="C87">
-        <v>-0.002995542738403861</v>
+        <v>0.01363117567599444</v>
       </c>
       <c r="D87">
-        <v>-0.07534450518425709</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09268258018532563</v>
+      </c>
+      <c r="E87">
+        <v>-0.127724209616096</v>
+      </c>
+      <c r="F87">
+        <v>-0.07197905746985375</v>
+      </c>
+      <c r="G87">
+        <v>0.004819015678723866</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.1100980827059454</v>
+        <v>0.09384000899072642</v>
       </c>
       <c r="C88">
-        <v>-0.08378046261601191</v>
+        <v>0.06759377685523825</v>
       </c>
       <c r="D88">
-        <v>0.01471726526127375</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01653719808919179</v>
+      </c>
+      <c r="E88">
+        <v>-0.05374579603160574</v>
+      </c>
+      <c r="F88">
+        <v>-0.0392426738244177</v>
+      </c>
+      <c r="G88">
+        <v>-0.02888835252842342</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1738950039052097</v>
+        <v>0.2114700760630955</v>
       </c>
       <c r="C89">
-        <v>0.3808009933920681</v>
+        <v>-0.3846941367847188</v>
       </c>
       <c r="D89">
-        <v>0.02892986124525388</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01236461030333484</v>
+      </c>
+      <c r="E89">
+        <v>-0.07860711023878547</v>
+      </c>
+      <c r="F89">
+        <v>-0.08424759328009862</v>
+      </c>
+      <c r="G89">
+        <v>0.002947797512729525</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1672909675242654</v>
+        <v>0.1922402483757363</v>
       </c>
       <c r="C90">
-        <v>0.333101802175936</v>
+        <v>-0.3103003918673635</v>
       </c>
       <c r="D90">
-        <v>0.03829083714932773</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01529668437459217</v>
+      </c>
+      <c r="E90">
+        <v>-0.05842158284001196</v>
+      </c>
+      <c r="F90">
+        <v>-0.02404779429840229</v>
+      </c>
+      <c r="G90">
+        <v>-0.01276732482072192</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1910296603932208</v>
+        <v>0.1878361652175531</v>
       </c>
       <c r="C91">
-        <v>-0.1228537870278354</v>
+        <v>0.139528374818145</v>
       </c>
       <c r="D91">
-        <v>0.1352720070943151</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1263467101595681</v>
+      </c>
+      <c r="E91">
+        <v>-0.05077799383085073</v>
+      </c>
+      <c r="F91">
+        <v>0.009850374460290108</v>
+      </c>
+      <c r="G91">
+        <v>0.005992383409554786</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1585959171545094</v>
+        <v>0.1782542020014551</v>
       </c>
       <c r="C92">
-        <v>0.2973334649700268</v>
+        <v>-0.3002039127871778</v>
       </c>
       <c r="D92">
-        <v>0.01919119968803568</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.01036619418633223</v>
+      </c>
+      <c r="E92">
+        <v>-0.06779475305335966</v>
+      </c>
+      <c r="F92">
+        <v>-0.04887953705247264</v>
+      </c>
+      <c r="G92">
+        <v>-0.02682004662135</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1867867972382226</v>
+        <v>0.2124888881762668</v>
       </c>
       <c r="C93">
-        <v>0.3377101379286228</v>
+        <v>-0.3212674346182363</v>
       </c>
       <c r="D93">
-        <v>0.04453161822749099</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01784412739383396</v>
+      </c>
+      <c r="E93">
+        <v>-0.04594686317538228</v>
+      </c>
+      <c r="F93">
+        <v>0.003143157473964936</v>
+      </c>
+      <c r="G93">
+        <v>-0.03596921859754687</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.3536436154761203</v>
+        <v>0.3479389652412888</v>
       </c>
       <c r="C94">
-        <v>-0.1282998398519565</v>
+        <v>0.174445028234147</v>
       </c>
       <c r="D94">
-        <v>0.4200744324934179</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4072276080721122</v>
+      </c>
+      <c r="E94">
+        <v>0.00305551597774478</v>
+      </c>
+      <c r="F94">
+        <v>0.100620374690958</v>
+      </c>
+      <c r="G94">
+        <v>0.4330250519827617</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1246150834685207</v>
+        <v>0.09053603612891674</v>
       </c>
       <c r="C95">
-        <v>-0.04466701690676414</v>
+        <v>0.05309579300123275</v>
       </c>
       <c r="D95">
-        <v>-0.2229562579397476</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1941006767376442</v>
+      </c>
+      <c r="E95">
+        <v>0.1553292255641923</v>
+      </c>
+      <c r="F95">
+        <v>-0.7645015440306718</v>
+      </c>
+      <c r="G95">
+        <v>0.4754383359152906</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1880316658402832</v>
+        <v>0.1856137438529813</v>
       </c>
       <c r="C98">
-        <v>-0.02887107003422697</v>
+        <v>0.04818781152556138</v>
       </c>
       <c r="D98">
-        <v>-0.1878378580301596</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1985042296805831</v>
+      </c>
+      <c r="E98">
+        <v>0.149824136735712</v>
+      </c>
+      <c r="F98">
+        <v>0.0930220922910381</v>
+      </c>
+      <c r="G98">
+        <v>-0.07166220927788598</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.008816959557624742</v>
+        <v>0.008020224747881785</v>
       </c>
       <c r="C101">
-        <v>-0.03316120785324091</v>
+        <v>0.0282107825912583</v>
       </c>
       <c r="D101">
-        <v>0.007565907465033744</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02315879074001923</v>
+      </c>
+      <c r="E101">
+        <v>-0.06384953776813916</v>
+      </c>
+      <c r="F101">
+        <v>-0.05761568442004426</v>
+      </c>
+      <c r="G101">
+        <v>-0.08440333941764772</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1222746545402684</v>
+        <v>0.1256316345093047</v>
       </c>
       <c r="C102">
-        <v>-0.06328445144191659</v>
+        <v>0.09592509695907944</v>
       </c>
       <c r="D102">
-        <v>0.05097002444858474</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.06072719908808892</v>
+      </c>
+      <c r="E102">
+        <v>0.01342626150809996</v>
+      </c>
+      <c r="F102">
+        <v>-0.02461439495559587</v>
+      </c>
+      <c r="G102">
+        <v>-0.0009246314173537327</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
